--- a/TristanKEREVAL-patch-1/ig/CodeSystem-CSLOINC.xlsx
+++ b/TristanKEREVAL-patch-1/ig/CodeSystem-CSLOINC.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T09:47:39+00:00</t>
+    <t>2024-03-27T10:49:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
